--- a/output.xlsx
+++ b/output.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -136,6 +137,176 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="7620000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,12 +593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,105 +619,100 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>Datos</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Datos</t>
+          <t>Agenda digital</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Agenda digital</t>
+          <t>Capacidades digitales</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Capacidades digitales</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Brecha digital</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Brecha digital</t>
+          <t>Marco legal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Marco legal</t>
+          <t>Interoperabilidad</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Interoperabilidad</t>
+          <t>Identidad digital</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Identidad digital</t>
+          <t>Voluntad política</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Voluntad política</t>
+          <t>Presupuesto</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Presupuesto</t>
+          <t>Infraestructura publica</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Infraestructura publica</t>
+          <t>Pasarela de pagos</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Pasarela de pagos</t>
+          <t>Simplificar tramites</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Simplificar tramites</t>
+          <t>Actualizar guatecompras</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Actualizar guatecompras</t>
+          <t>Digitalizacion de la informacion</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Digitalizacion de la informacion</t>
+          <t>Difusion del eGob</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Difusion del eGob</t>
+          <t>Colaboracion intersectorial</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Colaboracion intersectorial</t>
+          <t>Intercambio de experiencias</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Intercambio de experiencias</t>
+          <t>Participacion ciudadana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Participacion ciudadana</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Estandarizacion tecnologica</t>
         </is>
@@ -563,10 +729,8 @@
           <t xml:space="preserve">Puedan existir más leyes a nivel nacional, gobernanza estructurada </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Marco legal']</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -575,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -623,9 +787,6 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -640,28 +801,26 @@
           <t>Aparte de leyes, compartir información el tema de ciberseguridad para un mejor análisis de información, capacitación, crear canales de información, datos estadísticos, datos de proyección.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['Marco legal', 'Capacidades digitales', 'Datos']</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -700,9 +859,6 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -717,22 +873,20 @@
           <t xml:space="preserve">Tecnología, a nivel de persona paradigma de no seguridad, se tiene que contemplar sentido de confiabilidad de datos, para romper paradigma, darle al público un sentido de confianza, desafíos que el usuario se sienta confiado de datos; tener certeza del mecanismo sea de seguridad, que los datos sean debidamente seguros. </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Datos']</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -777,9 +931,6 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,13 +945,11 @@
           <t>Resguardar los datos de toda la comunidad social, estudiantil, ciberseguridad, grado académico.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['Datos']</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -854,9 +1003,6 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,10 +1017,8 @@
           <t>Uno de los temas a considerar, sería la creación de un MARCO LEGAL, ya que no puede esperar más el tema de ciberseguridad. Ya que da soporte, y estrategias para accionar, incluyendo el tema normativo, es importante como se va aplicar, la inclusión de un reglamento y los procedimientos, ya que el convenio de BUDAPEST es prioridad para poder adherirse, y poder participar de verdad dentro del intercambio.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['Participacion ciudadana', 'Marco legal']</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -889,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -928,12 +1072,9 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -948,10 +1089,8 @@
           <t>Una ley especifica de ciberseguridad es muy importante, a pesar de que un marco de ley sea amplio, de protección, es necesario tener una ley especifica de ciberseguridad. Es un tema de alta prioridad porque por ejemplo tener un ciberataque en infraestructuras publicas seria letal, ya que la ciberdelincuencia no tiene fronteras, ya que, en alguna oportunidad en dos o tres gobiernos, existió una estrategia nacional de ciberseguridad que se trabajo conjunto a la OEA.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Marco legal', 'Infraestructura publica']</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -960,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -981,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1008,9 +1147,6 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1025,10 +1161,8 @@
           <t>Es importante fortalecer a los cuerpos de seguridad, y crear condiciones de infraestructura digital, se necesita mucho y en términos de la misma lógica del proceso de modernización, el tema de capital humano, es bueno pensar en que tipo de perfil profesional sería necesarios para abordar las necesidades.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['Infraestructura publica']</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1058,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1085,9 +1219,6 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,19 +1233,17 @@
           <t>Vital poder aportar a la educación, como el poder capacitar desde los niños, es decir para que maneje correctamente la información que recibe en cuanto a tecnología.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1162,9 +1291,6 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,13 +1305,11 @@
           <t>Normar la protección de datos</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['Marco legal', 'Datos']</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1197,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1239,9 +1363,6 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1256,19 +1377,17 @@
           <t xml:space="preserve">Alfabetización digital </t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1316,9 +1435,6 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1333,10 +1449,8 @@
           <t>Libertad de expresión</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['Participacion ciudadana']</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1390,12 +1504,9 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1410,19 +1521,17 @@
           <t>educación a diferentes sectores</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1470,9 +1579,6 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,10 +1593,8 @@
           <t xml:space="preserve">FACT que exista por cada institución </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1547,9 +1651,6 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,10 +1665,8 @@
           <t>Que haya un sistema de parte del gobierno</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Digitalizacion de la informacion']</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1576,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1609,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1624,9 +1723,6 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1641,10 +1737,8 @@
           <t xml:space="preserve">Colocar en los sitios web sobre las dudas frecuentes </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1701,9 +1795,6 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1718,19 +1809,17 @@
           <t>DPI, nombre completo, correo electrónico uno de los datos bases para cualquier información</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Datos']</t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1778,9 +1867,6 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1795,10 +1881,8 @@
           <t>Generar confianza en los sitios web</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['Gobernanza']</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1807,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1855,9 +1939,6 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1872,13 +1953,11 @@
           <t>Cuál es la garantía de nuestros datos en el momento de querer por ejemplo hacer una denuncia u otra gestión.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['Datos']</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1932,9 +2011,6 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1949,10 +2025,8 @@
           <t>Implementar el acceso a la electricidad, equipo tecnológico e internet en los departamentos del interior del país.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>['Infraestructura publica']</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1982,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2009,9 +2083,6 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,19 +2097,17 @@
           <t>Implementar un sistema para poder digitalizar la información, crear bases de datos, fomentar la ciberseguridad y la digitalización. CCDA.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Datos', 'Digitalizacion de la informacion']</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2071,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2086,9 +2155,6 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2103,19 +2169,17 @@
           <t>Accesibilidad a la información, debe de ser transparente el proceso, fomentar e incluir a la población.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Participacion ciudadana']</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2160,12 +2224,9 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2180,10 +2241,8 @@
           <t>Poca de confianza de la población en las instituciones.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['Gobernanza']</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2192,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2240,9 +2299,6 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,10 +2313,8 @@
           <t>Acceso al internet, fomentación a la participación de los jóvenes, incentivar la ciberseguridad en todos los niveles. Además, la creación de plataformas seguras en el sector académico.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>['Participacion ciudadana', 'Infraestructura publica']</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2290,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2314,12 +2368,9 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2334,10 +2385,8 @@
           <t>Realizar análisis de riesgos en temas de ciberseguridad. (como sociedad civil).</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2394,9 +2443,6 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2411,19 +2457,17 @@
           <t>Formación en temas de ciberseguridad en todos los niveles y que sea impartido en los distintos idiomas, con el objetivo de llegar a todas la comunidades.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Participacion ciudadana']</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2468,12 +2512,9 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,19 +2529,17 @@
           <t>Implementar temas educativos, como conferencias de ciberseguridad, tomar en cuenta que todos deben ser capacitados, porque desde un niño que usa un celular ya debería saber de ciberseguridad, porque se debe tomar en cuenta que si esta conectado, esta expuesto.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2548,9 +2587,6 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2565,25 +2601,23 @@
           <t>Tomar en cuenta el acceso a todas las personas, especialmente a las personas con discapacidad, que se de material apto para las personas con discapacidad, tomar esta brecha y considerar el conocimiento hacia todos y tomar en cuenta alas personas, culturales para el acceso.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Brecha digital']</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2625,9 +2659,6 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2642,19 +2673,17 @@
           <t>Garantizar accesos, internet, programas y capacitaciones como en las municipalidades, en la educación como seguimiento en la auditoria social.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Participacion ciudadana']</t>
-        </is>
+      <c r="C29" t="n">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2699,27 +2728,361 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Academia</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cuerpo diplomático</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sector Privado</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sociedad Civil</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2740,105 +3103,100 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>Datos</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Datos</t>
+          <t>Agenda digital</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Agenda digital</t>
+          <t>Capacidades digitales</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Capacidades digitales</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Brecha digital</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Brecha digital</t>
+          <t>Marco legal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Marco legal</t>
+          <t>Interoperabilidad</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Interoperabilidad</t>
+          <t>Identidad digital</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Identidad digital</t>
+          <t>Voluntad política</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Voluntad política</t>
+          <t>Presupuesto</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Presupuesto</t>
+          <t>Infraestructura publica</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Infraestructura publica</t>
+          <t>Pasarela de pagos</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Pasarela de pagos</t>
+          <t>Simplificar tramites</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Simplificar tramites</t>
+          <t>Actualizar guatecompras</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Actualizar guatecompras</t>
+          <t>Digitalizacion de la informacion</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Digitalizacion de la informacion</t>
+          <t>Difusion del eGob</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Difusion del eGob</t>
+          <t>Colaboracion intersectorial</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Colaboracion intersectorial</t>
+          <t>Intercambio de experiencias</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Intercambio de experiencias</t>
+          <t>Participacion ciudadana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Participacion ciudadana</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Estandarizacion tecnologica</t>
         </is>
@@ -2855,19 +3213,17 @@
           <t>Capacitaciones de ciberseguridad de varios niveles, seminario internacional de inteligencia artificial sobre ciberseguridad, el Inex, esta abierto para el sistema nacional de seguridad, trabajan MG, MDP, SAAS.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Digitalizacion de la informacion']</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2900,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2915,9 +3271,6 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2932,10 +3285,8 @@
           <t>Estudios con psicólogos sobre el comportamiento humano, conductual para evitar los ataques cibernéticos, planes piloto para acompañar la inteligencia emocional, culturas, vivencias, cognitiva.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2992,9 +3343,6 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3009,22 +3357,20 @@
           <t>No se conoce de tema de ciberseguridad, impulsar más sobre el tema de seguridad, y que la comunidad adquiera conocimiento, especializadas a nivel, desarrollo, redes, seguridad, gobernanza y estándar del país, las universidades son parte fundamental, ciber defensa, investigación.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Capacidades digitales']</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -3069,9 +3415,6 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,10 +3429,8 @@
           <t>Brecha digital, internet a nivel nacional, las leyes no son buenas sobre la normativa.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['Marco legal', 'Infraestructura publica', 'Brecha digital']</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3101,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -3119,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -3146,9 +3487,6 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3163,19 +3501,17 @@
           <t>Hay que partir, ya que, por parte de la cooperación internacional, puesto que de esta parte ya se cuenta con la colaboración, y lograr los contactos necesarios, poder evaluar a nivel global y no solo lo regional y facilitar el conocimiento.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Intercambio de experiencias']</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3217,15 +3553,12 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3240,19 +3573,17 @@
           <t>La cooperación podrá apoyar con las investigaciones académicas, para que tengan una preparación más fuerte.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3300,9 +3631,6 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3317,10 +3645,8 @@
           <t>Ya que en las diferentes organizaciones se cuenta con el expertise para poder aportar y hacer análisis con países similares, ya que eso permite ir apoyando o ver en que se puede apoyar como por ejemplo la asesoría de ESTONIA, ellos lo ven de una manera mas integral, y permitir el desarrollo y avanzar como país desde sus comunidades. El enfoque de derechos humanos.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3377,9 +3703,6 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3394,10 +3717,8 @@
           <t>PNUD, UNESC, UNICEF, poseen una infraestructura a nivel de equipos técnicos que puedan facilitar algunos procesos que se necesiten como país. Ya que son implementadores también y trabajan con donantes como países y organismos internacionales, y lograr acercamientos con otros gobiernos, asistencia técnica, y facilitar la infraestructura no precisamente donar, sino que ser esa bisagra que permita unir o articular el trabajo con las prioridades de gobierno.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Infraestructura publica']</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3406,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -3427,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -3454,9 +3775,6 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3471,10 +3789,8 @@
           <t xml:space="preserve">Seguir trabajando las mesas de diálogos, hacer reuniones para evaluar los mecanismos </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['Colaboracion intersectorial']</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3522,18 +3838,15 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3548,10 +3861,8 @@
           <t>Conocer lo que está haciendo el ejecutivo desde su área y que sea a beneficio de ciberseguridad</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3608,9 +3919,6 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3625,10 +3933,8 @@
           <t>Tener insumos de lo que se necesita, al final las sociedades civiles somos los beneficiarios, tener a la vista las decisiones de políticas publicas relacionada a la ciberseguridad.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3685,9 +3991,6 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3702,10 +4005,8 @@
           <t>Como involucrar las buenas practicas</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3762,9 +4063,6 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3779,10 +4077,8 @@
           <t>Se habla de confianza como involucrar a la sociedad civil para el voto de aval</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['Gobernanza']</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3791,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -3839,9 +4135,6 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3856,19 +4149,17 @@
           <t>Aun se necesita mucha preparación, pero aun no se tiene nada de ciberseguridad.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3916,9 +4207,6 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3933,10 +4221,8 @@
           <t>Legalizar y oficializar la ciberseguridad desde las organizaciones de sociedad civil</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['Marco legal']</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3951,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -3993,9 +4279,6 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4010,19 +4293,17 @@
           <t>Nuestros procesos siguen siendo manual, aún hay mucho desconocimiento del tema.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4070,9 +4351,6 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4087,19 +4365,17 @@
           <t>Transformación digital implica un cambio de paradigma</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Agenda digital']</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -4147,9 +4423,6 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,10 +4437,8 @@
           <t>Ver la computadora como un individuo para tener la una buena práctica de ciberguridad</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4224,9 +4495,6 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4241,10 +4509,8 @@
           <t>Concientizar y sensibilizar sobre la importancia de ciberseguridad</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4301,9 +4567,6 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4318,19 +4581,17 @@
           <t>Como estudiantes podríamos contribuir en la formación de ciberseguridad. (concienciación, infografías, capacitaciones, entre otros.)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -4378,9 +4639,6 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4395,19 +4653,17 @@
           <t>Alianzas del sector público y académicos para contribuir a la educación en temas de ciberseguridad, permitiendo que sen impartido en los diferentes sectores estudiantiles y población en general.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Colaboracion intersectorial']</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -4446,18 +4702,15 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4472,19 +4725,17 @@
           <t>SBX, podría contribuir en talleres enfocados a los estudiantes, COCODES, entre otros, en temas de ciberseguridad; resaltando a la población de las tercera edad quienes son considerados como los más vulnerables en dichos temas. Además, buscar apoyo internacional.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4532,9 +4783,6 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4549,10 +4797,8 @@
           <t>Como sector estudiantil, podría contribuir en la difusión de temas relacionados a la ciberseguridad.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4609,9 +4855,6 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4626,19 +4869,17 @@
           <t>Crear contenido a través de las redes sociales y campañas radiales para alcanzar a todas la comunidades y promover la educación en temas de ciberseguridad.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4686,9 +4927,6 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4703,10 +4941,8 @@
           <t>Articulando organizaciones en los distintos departamentos donde el acceso a los servicios básicos es limitado, para colaborar en la fomentación de la ciberseguridad mediante el apoyo de las instituciones públicas y privadas.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4763,9 +4999,6 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4780,19 +5013,17 @@
           <t>Promover y apoyar en la educación de la ciberseguridad a las alcaldías auxiliares, para expandir temas relacionados a la ciberseguridad.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -4840,9 +5071,6 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,10 +5085,8 @@
           <t>es algo básico e intuitivo, en la contra parte de sección civil a gobierno la coordinación efectiva, para materializar planes y ejecutarlos. Para tomar iniciativas de ley y con ello participación para la aportación que sea coordinados para que puedan tener rumbos.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Participacion ciudadana', 'Marco legal']</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4869,16 +5095,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4914,12 +5140,9 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4934,10 +5157,8 @@
           <t xml:space="preserve">iniciativas para las personas discapacitadas para que sean escuchados, para saber sus necesidades, y respetar las autonomías para saber cuales son las necesidades de acceso para todos y que se impliquen programas correctos para el acceso a todos para que tenga un uso eficiente para cualquier tipo de persona y necesidad. Y buscar formas de contribuir de las sociedades aunque sea poco. Hay personas expertas para mejores contribuciones para todos especialmente personas con discapacidades. </t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C29" t="n">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4994,9 +5215,6 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5011,10 +5229,8 @@
           <t>tomar en cuenta los diálogos de las comunidades, y tomar realidades y tomar los recursos que ya existen para contribuir a quienes no lo tenga. Que existan buenos servicios. Tomar un mejor dialogo para llegar a mejoras.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5071,9 +5287,6 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,28 +5301,26 @@
           <t>tomar en cuenta sector religioso aprovechar infraestructura de como llevar insumos de seguridad y digital para protección, y así evitar violencia o cualquier tipo de daño a las personas especialmente adolescentes, implementar mecanismo y leyes para prevenir la parte intelectual, tomar en cuenta áreas culturales para compartir y tomar parte intelectual porque no se toma en cuenta a todos los pueblos, tomar prioridad el uso del lenguaje tecnológico de la seguridad, dar educación del uso correcto y proteger información. Dar confianza para protección y dar seguridad a la sociedad principalmente en los datos que se proporciona.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Marco legal', 'Infraestructura publica', 'Capacidades digitales', 'Datos']</t>
-        </is>
+      <c r="C31" t="n">
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -5121,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -5150,22 +5361,356 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="n">
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Academia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cuerpo diplomático</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sector Privado</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sociedad Civil</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5186,105 +5731,100 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>Datos</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Datos</t>
+          <t>Agenda digital</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Agenda digital</t>
+          <t>Capacidades digitales</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Capacidades digitales</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Brecha digital</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Brecha digital</t>
+          <t>Marco legal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Marco legal</t>
+          <t>Interoperabilidad</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Interoperabilidad</t>
+          <t>Identidad digital</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Identidad digital</t>
+          <t>Voluntad política</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Voluntad política</t>
+          <t>Presupuesto</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Presupuesto</t>
+          <t>Infraestructura publica</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Infraestructura publica</t>
+          <t>Pasarela de pagos</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Pasarela de pagos</t>
+          <t>Simplificar tramites</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Simplificar tramites</t>
+          <t>Actualizar guatecompras</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Actualizar guatecompras</t>
+          <t>Digitalizacion de la informacion</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Digitalizacion de la informacion</t>
+          <t>Difusion del eGob</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Difusion del eGob</t>
+          <t>Colaboracion intersectorial</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Colaboracion intersectorial</t>
+          <t>Intercambio de experiencias</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Intercambio de experiencias</t>
+          <t>Participacion ciudadana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Participacion ciudadana</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Estandarizacion tecnologica</t>
         </is>
@@ -5301,19 +5841,17 @@
           <t>Como resguardar la información, temor de la información digital a nivel nacional.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5361,9 +5899,6 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5378,19 +5913,17 @@
           <t>Mejorar procesos de simplificación y transparencia de trámites, divulgación, no hay donde poner una denuncia (Gobernanza), identidad digital, transformación digital.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['Simplificar tramites', 'Capacidades digitales']</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5417,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -5438,9 +5971,6 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,10 +5985,8 @@
           <t>Recordar que todos los esfuerzos deben centrarse en las personas y no olvidar a los grupos vulnerables, es decir mujeres, niños, comunidades indígenas, es decir que nadie se quede atrás.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5515,9 +6043,6 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5532,19 +6057,17 @@
           <t>La importancia de saber manejar los contenidos, pues de que serviría que la gente logre adquirir internet, si solo se utiliza en contenido sin provecho, tendría que ser al contrario, seria bueno saber como llevar la alfabetización digital para que la gente saque provecho de esta digitalización. Y saber si el sector privado sea tan interesante o invertir en las comunidades, puesto que en materia de negocio seria bueno investigar eso.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5592,9 +6115,6 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5609,22 +6129,20 @@
           <t>La agenda nacionalización transformación digital, debe ir un proyecto de gobernanza digital y sentar una mesa con una agenda común para poder llegar a un acuerdo, ya que la cooperación a invertido mucho en materia de  CIBERSEGURIDAD</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Capacidades digitales']</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -5669,9 +6187,6 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,19 +6201,17 @@
           <t>Ahora es necesario establecer protocolos o estándares mínimos, y que luego los demás colaboradores se agreguen.  Necesario una estandarización y tener la misma arquitectura tecnológica, para tener las capacidades de poder compartir información.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Estandarizacion tecnologica']</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5746,9 +6259,6 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5763,10 +6273,8 @@
           <t xml:space="preserve">Elaborar un manual o un decano para todas las secretarias </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5823,9 +6331,6 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5840,13 +6345,11 @@
           <t>Exigir la actualización de datos y desde allí se pueda dar la ciberseguridad</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['Datos']</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5900,9 +6403,6 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5917,10 +6417,8 @@
           <t>Involucrar al ministerio de la defensa y gobernación que serían los organismos ejecutivos responsables</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5977,9 +6475,6 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5994,10 +6489,8 @@
           <t>Hacer interacciones interinstitucionales nacionales e internacionales</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['Colaboracion intersectorial']</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6045,18 +6538,15 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6071,10 +6561,8 @@
           <t>Tener una percepción sobre tema de ciberseguridad en o para todos los sectores</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6131,9 +6619,6 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6148,10 +6633,8 @@
           <t>Identificar o crear un ente responsable directo de la ciberseguridad y que crea la gobernanza digital</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['Gobernanza']</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -6160,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6208,9 +6691,6 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6225,10 +6705,8 @@
           <t>Realizar charlas desde la pertinencia cultural para dar a conocer sobre la ciberseguridad</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6285,9 +6763,6 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6302,10 +6777,8 @@
           <t>Evaluar lo que ya se tiene para no crear una institución directa por el costo</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6362,9 +6835,6 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6379,19 +6849,17 @@
           <t>Capacitación constante a las instituciones</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales']</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6439,9 +6907,6 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6456,10 +6921,8 @@
           <t>Ser incluyentes sumando a todos los sectores</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -6516,9 +6979,6 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6533,19 +6993,17 @@
           <t>Llevar estos diálogos a los departamentos del interior del país, asimismo, buscar alianzas internacionales, con el objetivo de promover la educación en temas de ciberseguridad.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Colaboracion intersectorial']</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -6584,18 +7042,15 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6610,13 +7065,11 @@
           <t>Proteger los datos de la población con el objetivo de ser víctimas de algún tipo de delito. Además, abrir más espacios las comunidades rurales e indígenas con el fin de expandir dichos temas.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['Datos']</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6670,9 +7123,6 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6687,22 +7137,20 @@
           <t>Transparencia por parte del Gobierno, brindar la información de lo que se esta trabajando. Trabajar en conjunto con la sociedad civil.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Capacidades digitales', 'Colaboracion intersectorial']</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -6738,18 +7186,15 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,10 +7209,8 @@
           <t>Impulsar las iniciativas de ley ya propuestas de ciberseguridad.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>['Marco legal']</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -6782,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -6824,9 +7267,6 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6841,13 +7281,11 @@
           <t>Crear plataformas seguras para proteger los datos personales de la población; además, trabajar en conjunto con el sector privado.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>['Colaboracion intersectorial', 'Datos']</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6892,18 +7330,15 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6918,19 +7353,17 @@
           <t>Incentivar los conversatorios o talleres a nivel nacional, incluyendo a los distintos sectores, con el objetivo de promover la educación en ciberseguridad; asimismo, desarrollar ejercicios prácticos.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Participacion ciudadana']</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -6975,12 +7408,9 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6995,22 +7425,20 @@
           <t>Que el Gobierno sea transparente y que brinde información sobre a quienes se les esta brindando los datos personales, con el objetivo de que la población tenga confianza.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>['Gobernanza', 'Capacidades digitales', 'Datos']</t>
-        </is>
+      <c r="C24" t="n">
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -7055,9 +7483,6 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7072,19 +7497,17 @@
           <t xml:space="preserve">buscar que la sociedad participe en temas de ciberseguridad, buscar que la información sea puntual y clara. </t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Participacion ciudadana']</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7129,12 +7552,9 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7149,19 +7569,17 @@
           <t>fortalecer la intuición y participación de comunidad indígena, búsqueda de mecanismo de participación, y que no solo se tome la participación sino la toma de decisiones con esta comunidad que ha estado aislado. Implementar programas y medidas en los programas educativos, porque se considera prioridad el conocimiento de la tecnología y seguridad dentro de los temas de impartición en la educación.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>['Capacidades digitales', 'Participacion ciudadana']</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7206,12 +7624,9 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7226,28 +7641,26 @@
           <t>Implementar mejoras en la educación acerca de temas, implementar leyes de protección de datos para ya no estar expuestos, buscar medidas de protección de los datos. Y tomar en cuenta las opiniones de las personas en estos espacios para que se puedan implementar las mejoras.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['Marco legal', 'Capacidades digitales', 'Datos']</t>
-        </is>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -7288,11 +7701,715 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="n">
-        <v>0</v>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Academia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cuerpo diplomático</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sector Privado</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sociedad Civil</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Datos</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Agenda digital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidades digitales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brecha digital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Marco legal</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Interoperabilidad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Identidad digital</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Voluntad política</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Presupuesto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Infraestructura publica</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Pasarela de pagos</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Simplificar tramites</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Actualizar guatecompras</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Digitalizacion de la informacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Difusion del eGob</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Colaboracion intersectorial</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Intercambio de experiencias</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Participacion ciudadana</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Estandarizacion tecnologica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>